--- a/testcase/GuruDemoSite_Testcase_HungNT.xlsx
+++ b/testcase/GuruDemoSite_Testcase_HungNT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19440" windowHeight="7365" tabRatio="759" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19440" windowHeight="7365" tabRatio="759" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Artifact head" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="148">
   <si>
     <t>OK</t>
   </si>
@@ -397,6 +397,72 @@
   </si>
   <si>
     <t>Results</t>
+  </si>
+  <si>
+    <t>CN01</t>
+  </si>
+  <si>
+    <t>CN02</t>
+  </si>
+  <si>
+    <t>CN03</t>
+  </si>
+  <si>
+    <t>CN04</t>
+  </si>
+  <si>
+    <t>CN05</t>
+  </si>
+  <si>
+    <t>CN06</t>
+  </si>
+  <si>
+    <t>CN07</t>
+  </si>
+  <si>
+    <t>CN08</t>
+  </si>
+  <si>
+    <t>CN09</t>
+  </si>
+  <si>
+    <t>CN10</t>
+  </si>
+  <si>
+    <t>CN11</t>
+  </si>
+  <si>
+    <t>CN12</t>
+  </si>
+  <si>
+    <t>CN13</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>TC09</t>
   </si>
 </sst>
 </file>
@@ -2019,8 +2085,8 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -2060,7 +2126,7 @@
       </c>
       <c r="I3" s="44">
         <f>COUNTIFS(A12:A917, "TC_*")</f>
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2183,7 +2249,7 @@
     </row>
     <row r="14" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
       <c r="A14" s="54" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="60" t="s">
@@ -2201,7 +2267,9 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A15" s="58"/>
+      <c r="A15" s="54" t="s">
+        <v>140</v>
+      </c>
       <c r="B15" s="112" t="s">
         <v>37</v>
       </c>
@@ -2215,7 +2283,7 @@
     </row>
     <row r="16" spans="1:9" s="35" customFormat="1" ht="15" outlineLevel="2">
       <c r="A16" s="54" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="114" t="s">
@@ -2234,7 +2302,7 @@
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="15" outlineLevel="2">
       <c r="A17" s="54" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="115"/>
@@ -2249,7 +2317,7 @@
     </row>
     <row r="18" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A18" s="54" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="115"/>
@@ -2264,7 +2332,7 @@
     </row>
     <row r="19" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A19" s="54" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="115"/>
@@ -2279,7 +2347,7 @@
     </row>
     <row r="20" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
       <c r="A20" s="54" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="B20" s="54"/>
       <c r="C20" s="115"/>
@@ -2294,7 +2362,7 @@
     </row>
     <row r="21" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
       <c r="A21" s="54" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="B21" s="54"/>
       <c r="C21" s="115"/>
@@ -2309,7 +2377,7 @@
     </row>
     <row r="22" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A22" s="54" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="B22" s="54"/>
       <c r="C22" s="116"/>
@@ -2822,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -2864,8 +2932,8 @@
         <v>25</v>
       </c>
       <c r="I3" s="44">
-        <f>COUNTIFS(A12:A917, "TC_*")</f>
-        <v>28</v>
+        <f>COUNTIFS(A12:A906, "TC_*")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2878,7 +2946,7 @@
         <v>49</v>
       </c>
       <c r="I4" s="44">
-        <f>COUNTIFS(I13:I917, "Rejected")</f>
+        <f>COUNTIFS(I12:I906, "Rejected")</f>
         <v>0</v>
       </c>
     </row>
@@ -2962,7 +3030,7 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="A12" s="100" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" s="101"/>
       <c r="C12" s="101"/>
@@ -2988,19 +3056,19 @@
     </row>
     <row r="14" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
       <c r="A14" s="54" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="83" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="77"/>
+        <v>66</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="38"/>
       <c r="I14" s="31"/>
@@ -3018,602 +3086,428 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9" s="35" customFormat="1" ht="15" outlineLevel="2">
+    <row r="16" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A16" s="54" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="B16" s="54"/>
-      <c r="C16" s="114" t="s">
-        <v>54</v>
+      <c r="C16" s="117" t="s">
+        <v>68</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="109" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="38"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" s="35" customFormat="1" ht="15" outlineLevel="2">
+    <row r="17" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A17" s="54" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="B17" s="54"/>
-      <c r="C17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="110"/>
+        <v>72</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+    <row r="18" spans="1:9" s="35" customFormat="1" outlineLevel="2">
       <c r="A18" s="54" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B18" s="54"/>
-      <c r="C18" s="115"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="110"/>
+        <v>74</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+    <row r="19" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
       <c r="A19" s="54" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="B19" s="54"/>
-      <c r="C19" s="115"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="110"/>
+        <v>75</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="38"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
+    <row r="20" spans="1:9" s="35" customFormat="1" outlineLevel="2">
       <c r="A20" s="54" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B20" s="54"/>
-      <c r="C20" s="115"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="111"/>
+        <v>76</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="38"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
+    <row r="21" spans="1:9">
       <c r="A21" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="38"/>
+        <v>132</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+    <row r="22" spans="1:9">
       <c r="A22" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="38"/>
+        <v>133</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1">
-      <c r="A23" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
+    <row r="23" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A23" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="1:9" ht="25.5" customHeight="1">
       <c r="A25" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+        <v>136</v>
+      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:9" ht="25.5">
       <c r="A27" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>70</v>
+        <v>138</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="38"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A28" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="38"/>
+      <c r="I27" s="38"/>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1">
+      <c r="A28" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:9" s="35" customFormat="1" outlineLevel="2">
-      <c r="A29" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="45"/>
-    </row>
-    <row r="30" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
+      <c r="A29" s="58"/>
+      <c r="B29" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
       <c r="A30" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="117"/>
+        <v>116</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="83" t="s">
+        <v>65</v>
+      </c>
       <c r="D30" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="40"/>
+        <v>98</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="61"/>
       <c r="G30" s="40"/>
       <c r="H30" s="38"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="1:9" s="35" customFormat="1" outlineLevel="2">
-      <c r="A31" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="45"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
+      <c r="A31" s="58"/>
+      <c r="B31" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A32" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="40" t="s">
-        <v>77</v>
+        <v>117</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F32" s="38"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="G32" s="40"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9" ht="25.5">
       <c r="A33" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="117"/>
+        <v>118</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="34" spans="1:9" ht="25.5" customHeight="1">
+        <v>104</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+    </row>
+    <row r="34" spans="1:9" ht="25.5">
       <c r="A34" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="117"/>
+        <v>119</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="40" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F34" s="38"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="117"/>
+        <v>120</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="40" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F35" s="38"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-    </row>
-    <row r="36" spans="1:9" ht="25.5" customHeight="1">
+      <c r="G35" s="40"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="1:9" ht="38.25">
       <c r="A36" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="117"/>
+        <v>123</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="41" t="s">
+        <v>109</v>
+      </c>
       <c r="D36" s="40" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F36" s="38"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="G36" s="40"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+    </row>
+    <row r="37" spans="1:9" ht="38.25">
       <c r="A37" s="54" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="38"/>
+      <c r="C37" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
     </row>
-    <row r="38" spans="1:9" ht="25.5">
-      <c r="A38" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1">
-      <c r="A39" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="31"/>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
-      <c r="A41" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-    </row>
-    <row r="43" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A43" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="1:9" ht="25.5">
-      <c r="A44" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-    </row>
-    <row r="45" spans="1:9" ht="25.5">
-      <c r="A45" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-    </row>
-    <row r="47" spans="1:9" ht="38.25">
-      <c r="A47" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-    </row>
-    <row r="48" spans="1:9" ht="38.25">
-      <c r="A48" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
+    <row r="38" spans="1:9">
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
+  <mergeCells count="15">
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="C16:C25"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">
@@ -3628,7 +3522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4410,6 +4304,7 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="A9:A11"/>
@@ -4417,7 +4312,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">

--- a/testcase/GuruDemoSite_Testcase_HungNT.xlsx
+++ b/testcase/GuruDemoSite_Testcase_HungNT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19440" windowHeight="7365" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19440" windowHeight="7365" tabRatio="759" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Artifact head" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="154">
   <si>
     <t>OK</t>
   </si>
@@ -462,7 +462,29 @@
     <t>TC08</t>
   </si>
   <si>
-    <t>TC09</t>
+    <t>Verify title of Login page</t>
+  </si>
+  <si>
+    <t>Step1. When user looks at title of Login page</t>
+  </si>
+  <si>
+    <t>Step1. When UserID textbox is empty
+Step2. When Password textbox is empty
+Step3. When both UserID and Password textbox are empty
+Step4. When user enters incorrect UserID or Password</t>
+  </si>
+  <si>
+    <t>Verify Login successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Login </t>
+  </si>
+  <si>
+    <t>If invalid: "User or Password is not valid" alert displays
+If valid: User is redirected to Manager screen</t>
+  </si>
+  <si>
+    <t>Check New Customer</t>
   </si>
 </sst>
 </file>
@@ -959,7 +981,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,9 +1189,48 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1179,140 +1240,113 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1669,85 +1703,85 @@
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="8"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8"/>
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8"/>
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="14"/>
@@ -1789,12 +1823,12 @@
       <c r="C12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
@@ -1810,10 +1844,10 @@
       <c r="C13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
       <c r="H13" s="26"/>
       <c r="I13" s="17"/>
     </row>
@@ -1825,10 +1859,10 @@
       <c r="C14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
       <c r="H14" s="26"/>
       <c r="I14" s="17"/>
     </row>
@@ -1836,10 +1870,10 @@
       <c r="A15" s="8"/>
       <c r="B15" s="18"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
       <c r="H15" s="26"/>
       <c r="I15" s="17"/>
     </row>
@@ -1847,10 +1881,10 @@
       <c r="A16" s="8"/>
       <c r="B16" s="18"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
       <c r="H16" s="26"/>
       <c r="I16" s="17"/>
     </row>
@@ -1858,10 +1892,10 @@
       <c r="A17" s="8"/>
       <c r="B17" s="18"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
     </row>
@@ -1869,10 +1903,10 @@
       <c r="A18" s="8"/>
       <c r="B18" s="18"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
@@ -1880,10 +1914,10 @@
       <c r="A19" s="8"/>
       <c r="B19" s="18"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
     </row>
@@ -1891,10 +1925,10 @@
       <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
     </row>
@@ -1902,10 +1936,10 @@
       <c r="A21" s="8"/>
       <c r="B21" s="18"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
     </row>
@@ -1913,10 +1947,10 @@
       <c r="A22" s="8"/>
       <c r="B22" s="18"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
@@ -1924,10 +1958,10 @@
       <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="26"/>
       <c r="I23" s="27"/>
     </row>
@@ -1935,10 +1969,10 @@
       <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="26"/>
       <c r="I24" s="27"/>
     </row>
@@ -1946,10 +1980,10 @@
       <c r="A25" s="8"/>
       <c r="B25" s="18"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
       <c r="H25" s="26"/>
       <c r="I25" s="27"/>
     </row>
@@ -1957,10 +1991,10 @@
       <c r="A26" s="8"/>
       <c r="B26" s="18"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
       <c r="H26" s="26"/>
       <c r="I26" s="27"/>
     </row>
@@ -1968,10 +2002,10 @@
       <c r="A27" s="8"/>
       <c r="B27" s="18"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="26"/>
       <c r="I27" s="27"/>
     </row>
@@ -1979,10 +2013,10 @@
       <c r="A28" s="8"/>
       <c r="B28" s="18"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="26"/>
       <c r="I28" s="27"/>
     </row>
@@ -1990,10 +2024,10 @@
       <c r="A29" s="8"/>
       <c r="B29" s="18"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
       <c r="H29" s="26"/>
       <c r="I29" s="27"/>
     </row>
@@ -2001,10 +2035,10 @@
       <c r="A30" s="8"/>
       <c r="B30" s="18"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="26"/>
       <c r="I30" s="27"/>
     </row>
@@ -2012,10 +2046,10 @@
       <c r="A31" s="8"/>
       <c r="B31" s="18"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
       <c r="H31" s="26"/>
       <c r="I31" s="27"/>
     </row>
@@ -2023,10 +2057,10 @@
       <c r="A32" s="8"/>
       <c r="B32" s="18"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
       <c r="H32" s="26"/>
       <c r="I32" s="27"/>
     </row>
@@ -2034,15 +2068,36 @@
       <c r="A33" s="8"/>
       <c r="B33" s="18"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="D27:G27"/>
@@ -2050,27 +2105,6 @@
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2083,16 +2117,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="33" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" style="43" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2113,20 +2147,20 @@
       <c r="E2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="30"/>
       <c r="E3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="73"/>
       <c r="H3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="44">
-        <f>COUNTIFS(A12:A917, "TC_*")</f>
-        <v>20</v>
+        <f>COUNTIFS(A12:A890, "TC_*")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2134,12 +2168,12 @@
       <c r="E4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="75"/>
+      <c r="F4" s="74"/>
       <c r="H4" s="46" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="44">
-        <f>COUNTIFS(I13:I917, "Rejected")</f>
+        <f>COUNTIFS(I13:I890, "Rejected")</f>
         <v>0</v>
       </c>
     </row>
@@ -2148,198 +2182,210 @@
       <c r="E5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="30"/>
       <c r="E6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="30"/>
       <c r="E7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
       <c r="E8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="102" t="s">
+      <c r="F9" s="69"/>
+      <c r="G9" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="99" t="s">
+      <c r="H9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="99" t="s">
+      <c r="I9" s="105" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="99"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="71" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="99"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
       <c r="F12" s="68"/>
       <c r="G12" s="56"/>
       <c r="H12" s="32"/>
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="112" t="s">
+      <c r="A13" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
       <c r="A14" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="C14" s="60" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="77"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="40"/>
       <c r="H14" s="38"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
+    <row r="15" spans="1:9" s="35" customFormat="1" ht="76.5" outlineLevel="2">
       <c r="A15" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="31"/>
+      <c r="B15" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" s="35" customFormat="1" ht="15" outlineLevel="2">
       <c r="A16" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="114" t="s">
-        <v>54</v>
-      </c>
+      <c r="B16" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="101"/>
       <c r="D16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="109" t="s">
-        <v>69</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="38"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9" s="35" customFormat="1" ht="15" outlineLevel="2">
+    <row r="17" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A17" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="115"/>
+      <c r="B17" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="101"/>
       <c r="D17" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="110"/>
+        <v>59</v>
+      </c>
+      <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="31"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A18" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="115"/>
+      <c r="B18" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="101"/>
       <c r="D18" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="110"/>
+        <v>121</v>
+      </c>
+      <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+    <row r="19" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
       <c r="A19" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="101"/>
       <c r="D19" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="110"/>
+        <v>61</v>
+      </c>
+      <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="38"/>
@@ -2349,527 +2395,74 @@
       <c r="A20" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="115"/>
+      <c r="B20" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="101"/>
       <c r="D20" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="111"/>
+        <v>122</v>
+      </c>
+      <c r="E20" s="77"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="38"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
+    <row r="21" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A21" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="102"/>
       <c r="D21" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="78"/>
+        <v>60</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>63</v>
+      </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="38"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A22" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1">
-      <c r="A23" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
-      <c r="A25" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A27" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A28" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" s="35" customFormat="1" outlineLevel="2">
-      <c r="A29" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="45"/>
-    </row>
-    <row r="30" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
-      <c r="A30" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="1:9" s="35" customFormat="1" outlineLevel="2">
-      <c r="A31" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="45"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="34" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A34" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-    </row>
-    <row r="36" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A36" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-    </row>
-    <row r="38" spans="1:9" ht="25.5">
-      <c r="A38" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1">
-      <c r="A39" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="31"/>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
-      <c r="A41" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-    </row>
-    <row r="43" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A43" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="1:9" ht="25.5">
-      <c r="A44" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-    </row>
-    <row r="45" spans="1:9" ht="25.5">
-      <c r="A45" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-    </row>
-    <row r="47" spans="1:9" ht="38.25">
-      <c r="A47" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-    </row>
-    <row r="48" spans="1:9" ht="38.25">
-      <c r="A48" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
+  <mergeCells count="11">
+    <mergeCell ref="C15:C21"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="A12:E12"/>
@@ -2877,9 +2470,12 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I1048576 I12">
       <formula1>"Rejected"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2890,16 +2486,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="33" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" style="43" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2920,20 +2516,20 @@
       <c r="E2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="30"/>
       <c r="E3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="73"/>
       <c r="H3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="44">
-        <f>COUNTIFS(A12:A906, "TC_*")</f>
-        <v>7</v>
+        <f>COUNTIFS(A12:A893, "TC_*")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2941,12 +2537,12 @@
       <c r="E4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="75"/>
+      <c r="F4" s="74"/>
       <c r="H4" s="46" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="44">
-        <f>COUNTIFS(I12:I906, "Rejected")</f>
+        <f>COUNTIFS(I12:I893, "Rejected")</f>
         <v>0</v>
       </c>
     </row>
@@ -2955,235 +2551,261 @@
       <c r="E5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="30"/>
       <c r="E6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="30"/>
       <c r="E7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
       <c r="E8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="102" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="99" t="s">
+      <c r="H9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="99" t="s">
+      <c r="I9" s="105" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="99"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="85" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="99"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="80"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="56"/>
       <c r="H12" s="32"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="31"/>
+    <row r="13" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
+      <c r="A13" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
+    <row r="14" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A14" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="83" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="38"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="31"/>
+    <row r="15" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+      <c r="A15" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="115"/>
+      <c r="D15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+    <row r="16" spans="1:9" s="35" customFormat="1" outlineLevel="2">
       <c r="A16" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="117" t="s">
-        <v>68</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="115"/>
       <c r="D16" s="34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
       <c r="A17" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="117"/>
+        <v>130</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="115"/>
       <c r="D17" s="34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="31"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" s="35" customFormat="1" outlineLevel="2">
       <c r="A18" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="117"/>
+        <v>131</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="115"/>
       <c r="D18" s="34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
+    <row r="19" spans="1:9">
       <c r="A19" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="38"/>
+        <v>132</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="115"/>
+      <c r="D19" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" s="35" customFormat="1" outlineLevel="2">
+    <row r="20" spans="1:9">
       <c r="A20" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="38"/>
+        <v>133</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="115"/>
+      <c r="D20" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="25.5" customHeight="1">
       <c r="A21" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="117"/>
+        <v>134</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="115"/>
       <c r="D21" s="40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="63"/>
@@ -3192,15 +2814,17 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="117"/>
+        <v>135</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="115"/>
       <c r="D22" s="40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="63"/>
@@ -3209,15 +2833,17 @@
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1">
       <c r="A23" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="117"/>
+        <v>136</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="115"/>
       <c r="D23" s="40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="63"/>
@@ -3226,280 +2852,66 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="40" t="s">
-        <v>80</v>
+        <v>137</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="D24" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="25" spans="1:9" ht="25.5" customHeight="1">
+      <c r="G24" s="40"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" ht="25.5">
       <c r="A25" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="117"/>
+        <v>138</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="67"/>
       <c r="D25" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+        <v>93</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="1:9" ht="25.5">
-      <c r="A27" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" spans="1:9" s="2" customFormat="1">
-      <c r="A28" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
-      <c r="A30" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A31" s="58"/>
-      <c r="B31" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A32" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" spans="1:9" ht="25.5">
-      <c r="A33" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-    </row>
-    <row r="34" spans="1:9" ht="25.5">
-      <c r="A34" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-    </row>
-    <row r="36" spans="1:9" ht="38.25">
-      <c r="A36" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-    </row>
-    <row r="37" spans="1:9" ht="38.25">
-      <c r="A37" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C16:C25"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="B29:E29"/>
+  <mergeCells count="10">
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="G9:G11"/>
@@ -3508,6 +2920,8 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C14:C23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">
@@ -3550,14 +2964,14 @@
       <c r="E2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="30"/>
       <c r="E3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="73"/>
       <c r="H3" s="46" t="s">
         <v>25</v>
       </c>
@@ -3571,7 +2985,7 @@
       <c r="E4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="75"/>
+      <c r="F4" s="74"/>
       <c r="H4" s="46" t="s">
         <v>49</v>
       </c>
@@ -3585,101 +2999,101 @@
       <c r="E5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="30"/>
       <c r="E6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="30"/>
       <c r="E7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
       <c r="E8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="102" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="99" t="s">
+      <c r="H9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="99" t="s">
+      <c r="I9" s="105" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="99"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="85" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="99"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="80"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="56"/>
       <c r="H12" s="32"/>
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
       <c r="A13" s="58"/>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="81"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="57"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -3689,7 +3103,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="53"/>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="82" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="34" t="s">
@@ -3698,20 +3112,20 @@
       <c r="E14" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="77"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="40"/>
       <c r="H14" s="38"/>
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
       <c r="A15" s="58"/>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="81"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="57"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
@@ -3721,13 +3135,13 @@
         <v>38</v>
       </c>
       <c r="B16" s="54"/>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="100" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="116" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="40"/>
@@ -3740,11 +3154,11 @@
         <v>29</v>
       </c>
       <c r="B17" s="54"/>
-      <c r="C17" s="115"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="110"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
@@ -3755,11 +3169,11 @@
         <v>30</v>
       </c>
       <c r="B18" s="54"/>
-      <c r="C18" s="115"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="110"/>
+      <c r="E18" s="117"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
@@ -3770,11 +3184,11 @@
         <v>31</v>
       </c>
       <c r="B19" s="54"/>
-      <c r="C19" s="115"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="110"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="38"/>
@@ -3785,11 +3199,11 @@
         <v>32</v>
       </c>
       <c r="B20" s="54"/>
-      <c r="C20" s="115"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="111"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="38"/>
@@ -3800,11 +3214,11 @@
         <v>39</v>
       </c>
       <c r="B21" s="54"/>
-      <c r="C21" s="115"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="82"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="38"/>
@@ -3815,11 +3229,11 @@
         <v>40</v>
       </c>
       <c r="B22" s="54"/>
-      <c r="C22" s="116"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="78" t="s">
         <v>63</v>
       </c>
       <c r="F22" s="40"/>
@@ -3828,27 +3242,27 @@
       <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="80"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="56"/>
       <c r="H23" s="32"/>
       <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="81"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="57"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
@@ -3858,7 +3272,7 @@
         <v>82</v>
       </c>
       <c r="B25" s="53"/>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="82" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="34" t="s">
@@ -3874,13 +3288,13 @@
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
       <c r="A26" s="58"/>
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="81"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="80"/>
       <c r="G26" s="57"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
@@ -3890,7 +3304,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="54"/>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="115" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="34" t="s">
@@ -3909,7 +3323,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="54"/>
-      <c r="C28" s="117"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="34" t="s">
         <v>72</v>
       </c>
@@ -3926,7 +3340,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="117"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="34" t="s">
         <v>74</v>
       </c>
@@ -3943,7 +3357,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="117"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="34" t="s">
         <v>75</v>
       </c>
@@ -3960,7 +3374,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="54"/>
-      <c r="C31" s="117"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="34" t="s">
         <v>76</v>
       </c>
@@ -3977,7 +3391,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="62"/>
-      <c r="C32" s="117"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="40" t="s">
         <v>77</v>
       </c>
@@ -3994,7 +3408,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="62"/>
-      <c r="C33" s="117"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="40" t="s">
         <v>78</v>
       </c>
@@ -4011,7 +3425,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="62"/>
-      <c r="C34" s="117"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="40" t="s">
         <v>79</v>
       </c>
@@ -4028,7 +3442,7 @@
         <v>95</v>
       </c>
       <c r="B35" s="62"/>
-      <c r="C35" s="117"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="40" t="s">
         <v>80</v>
       </c>
@@ -4045,7 +3459,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="62"/>
-      <c r="C36" s="117"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="40" t="s">
         <v>81</v>
       </c>
@@ -4092,27 +3506,27 @@
       <c r="I38" s="38"/>
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="80"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="79"/>
       <c r="G39" s="56"/>
       <c r="H39" s="32"/>
       <c r="I39" s="31"/>
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
       <c r="A40" s="58"/>
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="81"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="80"/>
       <c r="G40" s="57"/>
       <c r="H40" s="31"/>
       <c r="I40" s="31"/>
@@ -4122,7 +3536,7 @@
         <v>116</v>
       </c>
       <c r="B41" s="53"/>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="82" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="34" t="s">
@@ -4138,13 +3552,13 @@
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
       <c r="A42" s="58"/>
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="81"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="57"/>
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
@@ -4292,6 +3706,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="B24:E24"/>
@@ -4299,19 +3726,6 @@
     <mergeCell ref="C27:C36"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="B40:E40"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">

--- a/testcase/GuruDemoSite_Testcase_HungNT.xlsx
+++ b/testcase/GuruDemoSite_Testcase_HungNT.xlsx
@@ -438,30 +438,6 @@
     <t>CN13</t>
   </si>
   <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>TC08</t>
-  </si>
-  <si>
     <t>Verify title of Login page</t>
   </si>
   <si>
@@ -485,6 +461,30 @@
   </si>
   <si>
     <t>Check New Customer</t>
+  </si>
+  <si>
+    <t>LO01</t>
+  </si>
+  <si>
+    <t>LO02</t>
+  </si>
+  <si>
+    <t>LO03</t>
+  </si>
+  <si>
+    <t>LO04</t>
+  </si>
+  <si>
+    <t>LO05</t>
+  </si>
+  <si>
+    <t>LO06</t>
+  </si>
+  <si>
+    <t>LO07</t>
+  </si>
+  <si>
+    <t>LO08</t>
   </si>
 </sst>
 </file>
@@ -1249,6 +1249,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,21 +1282,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1291,62 +1291,62 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1703,85 +1703,85 @@
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="8"/>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="92"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8"/>
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8"/>
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="93"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="14"/>
@@ -1823,12 +1823,12 @@
       <c r="C12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
@@ -1844,10 +1844,10 @@
       <c r="C13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="26"/>
       <c r="I13" s="17"/>
     </row>
@@ -1881,7 +1881,7 @@
       <c r="A16" s="8"/>
       <c r="B16" s="18"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="99"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="88"/>
       <c r="F16" s="88"/>
       <c r="G16" s="88"/>
@@ -1892,7 +1892,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="18"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="99"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="88"/>
       <c r="F17" s="88"/>
       <c r="G17" s="88"/>
@@ -1903,7 +1903,7 @@
       <c r="A18" s="8"/>
       <c r="B18" s="18"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="99"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
       <c r="G18" s="88"/>
@@ -1914,7 +1914,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="18"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="99"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="88"/>
       <c r="F19" s="88"/>
       <c r="G19" s="88"/>
@@ -1925,7 +1925,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="99"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="88"/>
       <c r="F20" s="88"/>
       <c r="G20" s="88"/>
@@ -2077,27 +2077,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="D27:G27"/>
@@ -2105,6 +2084,27 @@
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2120,7 +2120,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+      <selection activeCell="A14" sqref="A14:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -2205,94 +2205,94 @@
       <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="103" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="69"/>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="105" t="s">
+      <c r="I9" s="103" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="105"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="105"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="71"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="68"/>
       <c r="G12" s="56"/>
       <c r="H12" s="32"/>
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
       <c r="A14" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="53" t="s">
         <v>139</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>147</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>56</v>
@@ -2304,19 +2304,19 @@
     </row>
     <row r="15" spans="1:9" s="35" customFormat="1" ht="76.5" outlineLevel="2">
       <c r="A15" s="54" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C15" s="100" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="16" spans="1:9" s="35" customFormat="1" ht="15" outlineLevel="2">
       <c r="A16" s="54" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C16" s="101"/>
       <c r="D16" s="34" t="s">
@@ -2342,10 +2342,10 @@
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A17" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="86" t="s">
         <v>142</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>150</v>
       </c>
       <c r="C17" s="101"/>
       <c r="D17" s="34" t="s">
@@ -2359,10 +2359,10 @@
     </row>
     <row r="18" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A18" s="54" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C18" s="101"/>
       <c r="D18" s="34" t="s">
@@ -2376,10 +2376,10 @@
     </row>
     <row r="19" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
       <c r="A19" s="54" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B19" s="86" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C19" s="101"/>
       <c r="D19" s="34" t="s">
@@ -2393,10 +2393,10 @@
     </row>
     <row r="20" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
       <c r="A20" s="54" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C20" s="101"/>
       <c r="D20" s="34" t="s">
@@ -2410,10 +2410,10 @@
     </row>
     <row r="21" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
       <c r="A21" s="54" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C21" s="102"/>
       <c r="D21" s="34" t="s">
@@ -2489,7 +2489,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C14" sqref="C14:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -2574,64 +2574,64 @@
       <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="103" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="83"/>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="105" t="s">
+      <c r="I9" s="103" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="105"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="105"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="85"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="79"/>
       <c r="G12" s="56"/>
       <c r="H12" s="32"/>
@@ -2642,7 +2642,7 @@
         <v>126</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C13" s="82" t="s">
         <v>65</v>
@@ -2663,9 +2663,9 @@
         <v>127</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="116" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="34" t="s">
@@ -2684,9 +2684,9 @@
         <v>128</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="115"/>
+        <v>145</v>
+      </c>
+      <c r="C15" s="116"/>
       <c r="D15" s="34" t="s">
         <v>72</v>
       </c>
@@ -2703,9 +2703,9 @@
         <v>129</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="115"/>
+        <v>145</v>
+      </c>
+      <c r="C16" s="116"/>
       <c r="D16" s="34" t="s">
         <v>74</v>
       </c>
@@ -2722,9 +2722,9 @@
         <v>130</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="115"/>
+        <v>145</v>
+      </c>
+      <c r="C17" s="116"/>
       <c r="D17" s="34" t="s">
         <v>75</v>
       </c>
@@ -2741,9 +2741,9 @@
         <v>131</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="115"/>
+        <v>145</v>
+      </c>
+      <c r="C18" s="116"/>
       <c r="D18" s="34" t="s">
         <v>76</v>
       </c>
@@ -2760,9 +2760,9 @@
         <v>132</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="115"/>
+        <v>145</v>
+      </c>
+      <c r="C19" s="116"/>
       <c r="D19" s="40" t="s">
         <v>77</v>
       </c>
@@ -2779,9 +2779,9 @@
         <v>133</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="115"/>
+        <v>145</v>
+      </c>
+      <c r="C20" s="116"/>
       <c r="D20" s="40" t="s">
         <v>78</v>
       </c>
@@ -2798,9 +2798,9 @@
         <v>134</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="115"/>
+        <v>145</v>
+      </c>
+      <c r="C21" s="116"/>
       <c r="D21" s="40" t="s">
         <v>79</v>
       </c>
@@ -2817,9 +2817,9 @@
         <v>135</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="115"/>
+        <v>145</v>
+      </c>
+      <c r="C22" s="116"/>
       <c r="D22" s="40" t="s">
         <v>80</v>
       </c>
@@ -2836,9 +2836,9 @@
         <v>136</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="115"/>
+        <v>145</v>
+      </c>
+      <c r="C23" s="116"/>
       <c r="D23" s="40" t="s">
         <v>81</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>137</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C24" s="67"/>
       <c r="D24" s="38" t="s">
@@ -2874,7 +2874,7 @@
         <v>138</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="40" t="s">
@@ -2912,6 +2912,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C14:C23"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="G9:G11"/>
@@ -2920,8 +2922,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C14:C23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">
@@ -2936,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -3022,64 +3022,64 @@
       <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="103" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="83"/>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="105" t="s">
+      <c r="I9" s="103" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="105"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="105"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="85"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="79"/>
       <c r="G12" s="56"/>
       <c r="H12" s="32"/>
@@ -3087,12 +3087,12 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
       <c r="A13" s="58"/>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="80"/>
       <c r="G13" s="57"/>
       <c r="H13" s="31"/>
@@ -3119,12 +3119,12 @@
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
       <c r="A15" s="58"/>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="80"/>
       <c r="G15" s="57"/>
       <c r="H15" s="31"/>
@@ -3141,7 +3141,7 @@
       <c r="D16" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="116" t="s">
+      <c r="E16" s="117" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="40"/>
@@ -3158,7 +3158,7 @@
       <c r="D17" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="117"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
@@ -3173,7 +3173,7 @@
       <c r="D18" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="117"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
@@ -3188,7 +3188,7 @@
       <c r="D19" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="38"/>
@@ -3203,7 +3203,7 @@
       <c r="D20" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="118"/>
+      <c r="E20" s="119"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="38"/>
@@ -3242,13 +3242,13 @@
       <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="79"/>
       <c r="G23" s="56"/>
       <c r="H23" s="32"/>
@@ -3256,12 +3256,12 @@
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="80"/>
       <c r="G24" s="57"/>
       <c r="H24" s="31"/>
@@ -3288,12 +3288,12 @@
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
       <c r="A26" s="58"/>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="80"/>
       <c r="G26" s="57"/>
       <c r="H26" s="31"/>
@@ -3304,7 +3304,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="54"/>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="116" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="34" t="s">
@@ -3323,7 +3323,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="54"/>
-      <c r="C28" s="115"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="34" t="s">
         <v>72</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="115"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="34" t="s">
         <v>74</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="115"/>
+      <c r="C30" s="116"/>
       <c r="D30" s="34" t="s">
         <v>75</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="54"/>
-      <c r="C31" s="115"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="34" t="s">
         <v>76</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="62"/>
-      <c r="C32" s="115"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="40" t="s">
         <v>77</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="62"/>
-      <c r="C33" s="115"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="40" t="s">
         <v>78</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="62"/>
-      <c r="C34" s="115"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="40" t="s">
         <v>79</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>95</v>
       </c>
       <c r="B35" s="62"/>
-      <c r="C35" s="115"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="40" t="s">
         <v>80</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="62"/>
-      <c r="C36" s="115"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="40" t="s">
         <v>81</v>
       </c>
@@ -3506,13 +3506,13 @@
       <c r="I38" s="38"/>
     </row>
     <row r="39" spans="1:9" s="2" customFormat="1">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
       <c r="F39" s="79"/>
       <c r="G39" s="56"/>
       <c r="H39" s="32"/>
@@ -3520,12 +3520,12 @@
     </row>
     <row r="40" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
       <c r="A40" s="58"/>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="80"/>
       <c r="G40" s="57"/>
       <c r="H40" s="31"/>
@@ -3552,12 +3552,12 @@
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
       <c r="A42" s="58"/>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
       <c r="F42" s="80"/>
       <c r="G42" s="57"/>
       <c r="H42" s="31"/>
@@ -3706,6 +3706,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="A9:A11"/>
@@ -3713,19 +3726,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B40:E40"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">

--- a/testcase/GuruDemoSite_Testcase_HungNT.xlsx
+++ b/testcase/GuruDemoSite_Testcase_HungNT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19440" windowHeight="7365" tabRatio="759" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19440" windowHeight="7365" tabRatio="759" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Artifact head" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="118">
   <si>
     <t>OK</t>
   </si>
@@ -86,10 +86,6 @@
     <t>Status Definition</t>
   </si>
   <si>
-    <t>Referred
-Ticket ID</t>
-  </si>
-  <si>
     <t>Sprint for update testcase</t>
   </si>
   <si>
@@ -105,60 +101,9 @@
     <t>Not tested number</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>TC_06</t>
-  </si>
-  <si>
-    <t>TC_14</t>
-  </si>
-  <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>TC_07</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>TC_13</t>
-  </si>
-  <si>
-    <t>TC_15</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -186,15 +131,9 @@
     <t>Given a user is currently in Login screen</t>
   </si>
   <si>
-    <t>When user looks at title of Login page</t>
-  </si>
-  <si>
     <t>Title of the Login page is Guru99 Bank</t>
   </si>
   <si>
-    <t>When UserID textbox is empty</t>
-  </si>
-  <si>
     <t>When Password textbox is empty</t>
   </si>
   <si>
@@ -228,9 +167,6 @@
     <t>Given a user is currently in Add New Customer screen</t>
   </si>
   <si>
-    <t>"User or Password is not valid" alert displays</t>
-  </si>
-  <si>
     <t>When user leaves all fields blank and clicks Submit button</t>
   </si>
   <si>
@@ -267,9 +203,6 @@
     <t>When user doesn't enter Password</t>
   </si>
   <si>
-    <t>TC_09</t>
-  </si>
-  <si>
     <t>"Date Field must not be blank" should display</t>
   </si>
   <si>
@@ -306,94 +239,10 @@
     <t>"Customer Registered Successfully!!!" screen should display</t>
   </si>
   <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>Delete Customer screen</t>
-  </si>
-  <si>
-    <t>When user clicks Delete Customer link button</t>
-  </si>
-  <si>
-    <t>User is redirected to "Delete Customer Form" screen</t>
-  </si>
-  <si>
-    <t>Given a user is currently in Delete Customer Form screen</t>
-  </si>
-  <si>
-    <t>When user doesn't enter Customer ID and clicks Submit button</t>
-  </si>
-  <si>
-    <t>"Customer ID is required" text should display</t>
-  </si>
-  <si>
-    <t>"Please fill in all fields" popup should display</t>
-  </si>
-  <si>
-    <t>When user doesn't enter Customer ID and clicks other locations</t>
-  </si>
-  <si>
-    <t>When user enters Customer ID and clicks Reset button</t>
-  </si>
-  <si>
-    <t>Customer ID textbox is cleared</t>
-  </si>
-  <si>
-    <t>When user enters invalid Customer ID</t>
-  </si>
-  <si>
-    <t>"Characters are not allowed" text should display</t>
-  </si>
-  <si>
-    <t>Given a user doesn't exist in the database</t>
-  </si>
-  <si>
-    <t>When user enters Customer ID and clicks Submit button then clicks OK button in the popup</t>
-  </si>
-  <si>
-    <t>"Customer does not exist!!" popup should display</t>
-  </si>
-  <si>
-    <t>Given a user exists in the database</t>
-  </si>
-  <si>
-    <t>"Customer deleted Successfully" popup should display</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t>TC_22</t>
-  </si>
-  <si>
-    <t>TC_23</t>
-  </si>
-  <si>
-    <t>TC_24</t>
-  </si>
-  <si>
-    <t>TC_25</t>
-  </si>
-  <si>
-    <t>TC_26</t>
-  </si>
-  <si>
     <t>When user enters incorrect UserID or Password</t>
   </si>
   <si>
     <t>Check Reset button</t>
-  </si>
-  <si>
-    <t>TC_27</t>
-  </si>
-  <si>
-    <t>TC_28</t>
   </si>
   <si>
     <t>Results</t>
@@ -485,6 +334,48 @@
   </si>
   <si>
     <t>LO08</t>
+  </si>
+  <si>
+    <t>Edit Customer screen</t>
+  </si>
+  <si>
+    <t>ED01</t>
+  </si>
+  <si>
+    <t>ED02</t>
+  </si>
+  <si>
+    <t>ED03</t>
+  </si>
+  <si>
+    <t>ED04</t>
+  </si>
+  <si>
+    <t>ED05</t>
+  </si>
+  <si>
+    <t>ED06</t>
+  </si>
+  <si>
+    <t>ED07</t>
+  </si>
+  <si>
+    <t>ED08</t>
+  </si>
+  <si>
+    <t>ED09</t>
+  </si>
+  <si>
+    <t>ED10</t>
+  </si>
+  <si>
+    <t>ED11</t>
+  </si>
+  <si>
+    <t>ED12</t>
+  </si>
+  <si>
+    <t>Edit customer successfully</t>
   </si>
 </sst>
 </file>
@@ -981,7 +872,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1105,9 +996,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1153,12 +1041,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1169,9 +1051,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1181,9 +1060,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,12 +1098,6 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,39 +1119,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1332,21 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1703,85 +1558,85 @@
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="8"/>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8"/>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
+      <c r="C4" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8"/>
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8"/>
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="99"/>
+      <c r="C6" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
+      <c r="C7" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
+      <c r="C8" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="14"/>
@@ -1842,12 +1697,12 @@
         <v>42244</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="26"/>
       <c r="I13" s="17"/>
     </row>
@@ -1857,12 +1712,12 @@
         <v>42244</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+        <v>35</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="26"/>
       <c r="I14" s="17"/>
     </row>
@@ -1870,10 +1725,10 @@
       <c r="A15" s="8"/>
       <c r="B15" s="18"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="26"/>
       <c r="I15" s="17"/>
     </row>
@@ -1881,10 +1736,10 @@
       <c r="A16" s="8"/>
       <c r="B16" s="18"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="26"/>
       <c r="I16" s="17"/>
     </row>
@@ -1892,10 +1747,10 @@
       <c r="A17" s="8"/>
       <c r="B17" s="18"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
     </row>
@@ -1903,10 +1758,10 @@
       <c r="A18" s="8"/>
       <c r="B18" s="18"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
@@ -1914,10 +1769,10 @@
       <c r="A19" s="8"/>
       <c r="B19" s="18"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
     </row>
@@ -1925,10 +1780,10 @@
       <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
     </row>
@@ -1936,10 +1791,10 @@
       <c r="A21" s="8"/>
       <c r="B21" s="18"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
     </row>
@@ -1947,10 +1802,10 @@
       <c r="A22" s="8"/>
       <c r="B22" s="18"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
@@ -1958,10 +1813,10 @@
       <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="26"/>
       <c r="I23" s="27"/>
     </row>
@@ -1969,10 +1824,10 @@
       <c r="A24" s="8"/>
       <c r="B24" s="18"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="26"/>
       <c r="I24" s="27"/>
     </row>
@@ -1980,10 +1835,10 @@
       <c r="A25" s="8"/>
       <c r="B25" s="18"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="26"/>
       <c r="I25" s="27"/>
     </row>
@@ -1991,10 +1846,10 @@
       <c r="A26" s="8"/>
       <c r="B26" s="18"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="26"/>
       <c r="I26" s="27"/>
     </row>
@@ -2002,10 +1857,10 @@
       <c r="A27" s="8"/>
       <c r="B27" s="18"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="26"/>
       <c r="I27" s="27"/>
     </row>
@@ -2013,10 +1868,10 @@
       <c r="A28" s="8"/>
       <c r="B28" s="18"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="26"/>
       <c r="I28" s="27"/>
     </row>
@@ -2024,10 +1879,10 @@
       <c r="A29" s="8"/>
       <c r="B29" s="18"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
       <c r="H29" s="26"/>
       <c r="I29" s="27"/>
     </row>
@@ -2035,10 +1890,10 @@
       <c r="A30" s="8"/>
       <c r="B30" s="18"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
       <c r="H30" s="26"/>
       <c r="I30" s="27"/>
     </row>
@@ -2046,10 +1901,10 @@
       <c r="A31" s="8"/>
       <c r="B31" s="18"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
       <c r="H31" s="26"/>
       <c r="I31" s="27"/>
     </row>
@@ -2057,10 +1912,10 @@
       <c r="A32" s="8"/>
       <c r="B32" s="18"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
       <c r="H32" s="26"/>
       <c r="I32" s="27"/>
     </row>
@@ -2068,15 +1923,36 @@
       <c r="A33" s="8"/>
       <c r="B33" s="18"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="D27:G27"/>
@@ -2084,27 +1960,6 @@
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2127,19 +1982,19 @@
   <cols>
     <col min="1" max="1" width="8.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="42" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="55" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="54" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>46</v>
+      <c r="A1" s="41" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
@@ -2147,176 +2002,176 @@
       <c r="E2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="30"/>
-      <c r="E3" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="73"/>
-      <c r="H3" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="44">
+      <c r="E3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="H3" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="43">
         <f>COUNTIFS(A12:A890, "TC_*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="D4" s="30"/>
-      <c r="E4" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="74"/>
-      <c r="H4" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="44">
+      <c r="E4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="H4" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="43">
         <f>COUNTIFS(I13:I890, "Rejected")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
       <c r="D5" s="30"/>
-      <c r="E5" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="74"/>
+      <c r="E5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="30"/>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="30"/>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="75"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="75"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="106" t="s">
+      <c r="F9" s="64"/>
+      <c r="G9" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>47</v>
+      <c r="H9" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="96" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="103"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="100"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="103"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="56"/>
+      <c r="A12" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="32"/>
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
+    </row>
+    <row r="14" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
+      <c r="A14" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
-    </row>
-    <row r="14" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
-      <c r="A14" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>54</v>
-      </c>
       <c r="D14" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="76"/>
+        <v>90</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="71"/>
       <c r="G14" s="40"/>
       <c r="H14" s="38"/>
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" s="35" customFormat="1" ht="76.5" outlineLevel="2">
-      <c r="A15" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>54</v>
+      <c r="A15" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>144</v>
+        <v>91</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>94</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -2324,15 +2179,15 @@
       <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" s="35" customFormat="1" ht="15" outlineLevel="2">
-      <c r="A16" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="101"/>
+      <c r="A16" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="94"/>
       <c r="D16" s="34" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
@@ -2341,122 +2196,122 @@
       <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A17" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="101"/>
+      <c r="A17" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="94"/>
       <c r="D17" s="34" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="45"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A18" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="101"/>
+      <c r="A18" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="94"/>
       <c r="D18" s="34" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
-      <c r="I18" s="45"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
-      <c r="A19" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="101"/>
+      <c r="A19" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="94"/>
       <c r="D19" s="34" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="38"/>
-      <c r="I19" s="45"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
-      <c r="A20" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="101"/>
+      <c r="A20" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="94"/>
       <c r="D20" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="77"/>
+        <v>74</v>
+      </c>
+      <c r="E20" s="72"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="38"/>
-      <c r="I20" s="45"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A21" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="102"/>
+      <c r="A21" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="95"/>
       <c r="D21" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>43</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="38"/>
-      <c r="I21" s="45"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
-      <c r="G22" s="61"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
-      <c r="G23" s="61"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
-      <c r="G24" s="61"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
@@ -2488,27 +2343,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="42" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="55" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="54" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>46</v>
+      <c r="A1" s="41" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
@@ -2516,142 +2371,142 @@
       <c r="E2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="30"/>
-      <c r="E3" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="73"/>
-      <c r="H3" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="44">
+      <c r="E3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="H3" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="43">
         <f>COUNTIFS(A12:A893, "TC_*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="D4" s="30"/>
-      <c r="E4" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="74"/>
-      <c r="H4" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="44">
+      <c r="E4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="H4" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="43">
         <f>COUNTIFS(I12:I893, "Rejected")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
       <c r="D5" s="30"/>
-      <c r="E5" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="74"/>
+      <c r="E5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="30"/>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="30"/>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="75"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="75"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="106" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>47</v>
+      <c r="H9" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="96" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="103"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="100"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="103"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="56"/>
+      <c r="A12" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="32"/>
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
-      <c r="A13" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>65</v>
+      <c r="A13" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>47</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -2659,20 +2514,20 @@
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A14" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="116" t="s">
-        <v>68</v>
+      <c r="A14" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="109" t="s">
+        <v>48</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -2680,18 +2535,18 @@
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A15" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="116"/>
+      <c r="A15" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="109"/>
       <c r="D15" s="34" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -2699,170 +2554,170 @@
       <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" s="35" customFormat="1" outlineLevel="2">
-      <c r="A16" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="116"/>
+      <c r="A16" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="109"/>
       <c r="D16" s="34" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="45"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
-      <c r="A17" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="116"/>
+      <c r="A17" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="109"/>
       <c r="D17" s="34" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="45"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" s="35" customFormat="1" outlineLevel="2">
-      <c r="A18" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="116"/>
+      <c r="A18" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="109"/>
       <c r="D18" s="34" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
-      <c r="I18" s="45"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="116"/>
+      <c r="A19" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="109"/>
       <c r="D19" s="40" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="109"/>
+      <c r="D20" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A21" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="109"/>
+      <c r="D21" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="109"/>
+      <c r="D22" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A23" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="116"/>
-      <c r="D20" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="38" t="s">
+      <c r="B23" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="109"/>
+      <c r="D23" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-    </row>
-    <row r="21" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A21" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A23" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="67"/>
+      <c r="B24" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="62"/>
       <c r="D24" s="38" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="40"/>
@@ -2870,18 +2725,18 @@
       <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:9" ht="25.5">
-      <c r="A25" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="67"/>
+      <c r="A25" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="62"/>
       <c r="D25" s="40" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -2889,24 +2744,24 @@
       <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
-      <c r="G26" s="61"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
-      <c r="G27" s="61"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
@@ -2934,29 +2789,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:E40"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="15" style="33" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="42" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="55" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="54" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>46</v>
+      <c r="A1" s="41" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
@@ -2964,768 +2819,402 @@
       <c r="E2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:9">
       <c r="D3" s="30"/>
-      <c r="E3" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="73"/>
-      <c r="H3" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="44">
-        <f>COUNTIFS(A12:A917, "TC_*")</f>
-        <v>28</v>
+      <c r="E3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="H3" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="43">
+        <f>COUNTIFS(A12:A893, "TC_*")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="D4" s="30"/>
-      <c r="E4" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="74"/>
-      <c r="H4" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="44">
-        <f>COUNTIFS(I13:I917, "Rejected")</f>
+      <c r="E4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="H4" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="43">
+        <f>COUNTIFS(I12:I893, "Rejected")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
       <c r="D5" s="30"/>
-      <c r="E5" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="74"/>
+      <c r="E5" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="30"/>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="30"/>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="75"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="75"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="76"/>
+      <c r="G9" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>47</v>
+      <c r="I9" s="96" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="103"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="100"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="103"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="56"/>
+      <c r="A12" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="32"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="31"/>
+    <row r="13" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+      <c r="A13" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
-      <c r="A14" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="82" t="s">
-        <v>54</v>
-      </c>
+    <row r="14" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+      <c r="A14" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="109"/>
       <c r="D14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="76"/>
+        <v>51</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="38"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:9" s="35" customFormat="1" ht="15" outlineLevel="2">
-      <c r="A16" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="100" t="s">
+    <row r="15" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+      <c r="A15" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
+      <c r="A16" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="109"/>
+      <c r="D16" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="117" t="s">
-        <v>69</v>
+      <c r="E16" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="1:9" s="35" customFormat="1" ht="15" outlineLevel="2">
-      <c r="A17" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="101"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
+      <c r="A17" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="109"/>
       <c r="D17" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="118"/>
+        <v>55</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A18" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="34" t="s">
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5">
+      <c r="A18" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" spans="1:9" ht="25.5">
+      <c r="A19" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A20" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="109"/>
+      <c r="D20" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="1:9" ht="25.5">
+      <c r="A21" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="109"/>
+      <c r="D21" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="118"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A19" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
-      <c r="A20" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="45"/>
-    </row>
-    <row r="21" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
-      <c r="A21" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="45"/>
-    </row>
-    <row r="22" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A22" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="34" t="s">
+      <c r="E21" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A22" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="109"/>
+      <c r="D22" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1">
-      <c r="A23" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
-      <c r="A25" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A27" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="116" t="s">
+      <c r="E22" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="F22" s="38"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.5">
+      <c r="A23" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="F23" s="38"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:9" ht="25.5">
+      <c r="A24" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A28" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="34" t="s">
+      <c r="E24" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" s="35" customFormat="1" outlineLevel="2">
-      <c r="A29" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="45"/>
-    </row>
-    <row r="30" spans="1:9" s="35" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
-      <c r="A30" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="1:9" s="35" customFormat="1" outlineLevel="2">
-      <c r="A31" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="45"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="34" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A34" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-    </row>
-    <row r="36" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A36" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-    </row>
-    <row r="38" spans="1:9" ht="25.5">
-      <c r="A38" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1">
-      <c r="A39" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="31"/>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="15" outlineLevel="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:9" s="35" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
-      <c r="A41" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-    </row>
-    <row r="43" spans="1:9" s="35" customFormat="1" ht="25.5" outlineLevel="2">
-      <c r="A43" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="1:9" ht="25.5">
-      <c r="A44" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-    </row>
-    <row r="45" spans="1:9" ht="25.5">
-      <c r="A45" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-    </row>
-    <row r="47" spans="1:9" ht="38.25">
-      <c r="A47" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-    </row>
-    <row r="48" spans="1:9" ht="38.25">
-      <c r="A48" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="E16:E20"/>
+  <mergeCells count="10">
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C13:C22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">
